--- a/geo_airport2.xlsx
+++ b/geo_airport2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="333">
   <si>
     <t>ORIGIN</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>cnt_dest</t>
+  </si>
+  <si>
+    <t>IATA</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
   <si>
     <t>tot_cnt</t>
@@ -1333,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E326"/>
+  <dimension ref="A1:H326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1343,10 +1352,12 @@
     <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1362,5525 +1373,8457 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>1638</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>1641</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>40.652099609375</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-75.440803527832003</v>
+      </c>
+      <c r="H2" s="2">
         <v>3279</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>2832</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>2833</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>32.411300659200002</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-99.681900024399994</v>
+      </c>
+      <c r="H3" s="2">
         <v>5665</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>24635</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>24631</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>35.040199279785099</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-106.609001159667</v>
+      </c>
+      <c r="H4" s="2">
         <v>49266</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>752</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>751</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45.449100494384702</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-98.421798706054602</v>
+      </c>
+      <c r="H5" s="2">
         <v>1503</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>1003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>1002</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>31.535499572753899</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-84.194503784179602</v>
+      </c>
+      <c r="H6" s="2">
         <v>2005</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>397</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>397</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>41.253101350000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-70.060203549999997</v>
+      </c>
+      <c r="H7" s="2">
         <v>794</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>1762</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>1762</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>31.611299514770501</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-97.230499267578097</v>
+      </c>
+      <c r="H8" s="2">
         <v>3524</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>3060</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>3062</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>40.978099822997997</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-124.109001159667</v>
+      </c>
+      <c r="H9" s="2">
         <v>6122</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>491</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>492</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2">
+        <v>39.4575996398925</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-74.577201843261705</v>
+      </c>
+      <c r="H10" s="2">
         <v>983</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
         <v>104</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>51.877998352050703</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-176.64599609375</v>
+      </c>
+      <c r="H11" s="2">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>536</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <v>536</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <v>57.75</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-152.4940033</v>
+      </c>
+      <c r="H12" s="2">
         <v>1072</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>3425</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>3425</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2">
+        <v>31.327400207519499</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-92.549797058105398</v>
+      </c>
+      <c r="H13" s="2">
         <v>6850</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>2655</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>2656</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>33.369899749755803</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-81.964500427246094</v>
+      </c>
+      <c r="H14" s="2">
         <v>5311</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2">
         <v>63</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2">
+        <v>58.676799770000002</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-156.64900209999999</v>
+      </c>
+      <c r="H15" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>7994</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2">
         <v>7993</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2">
+        <v>42.748298645019503</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-73.801696777343693</v>
+      </c>
+      <c r="H16" s="2">
         <v>15987</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>678</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2">
         <v>678</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2">
+        <v>42.557098388671797</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-92.400299072265597</v>
+      </c>
+      <c r="H17" s="2">
         <v>1356</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>7263</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2">
         <v>7263</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2">
+        <v>35.219398498535099</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-101.706001281738</v>
+      </c>
+      <c r="H18" s="2">
         <v>14526</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>16788</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2">
         <v>16791</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2">
+        <v>61.174400329589801</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-149.996002197265</v>
+      </c>
+      <c r="H19" s="2">
         <v>33579</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
         <v>626</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2">
         <v>626</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45.078098300000001</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-83.560302730000004</v>
+      </c>
+      <c r="H20" s="2">
         <v>1252</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
         <v>237</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>236</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2">
+        <v>43.991901397705</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-76.021697998046804</v>
+      </c>
+      <c r="H21" s="2">
         <v>473</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
         <v>4568</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>4569</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="2">
+        <v>39.223201750000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-106.8690033</v>
+      </c>
+      <c r="H22" s="2">
         <v>9137</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
         <v>369779</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>369842</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="2">
+        <v>33.636699676513601</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-84.4281005859375</v>
+      </c>
+      <c r="H23" s="2">
         <v>739621</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
         <v>2710</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>2712</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="2">
+        <v>44.258098602299903</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-88.519096374499995</v>
+      </c>
+      <c r="H24" s="2">
         <v>5422</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
         <v>43098</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>43095</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="2">
+        <v>30.194499969482401</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-97.669898986816406</v>
+      </c>
+      <c r="H25" s="2">
         <v>86193</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2">
         <v>3395</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>3395</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="2">
+        <v>35.436199188232401</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-82.541801452636705</v>
+      </c>
+      <c r="H26" s="2">
         <v>6790</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
         <v>1697</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>1696</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="2">
+        <v>41.338500976599903</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-75.723396301299999</v>
+      </c>
+      <c r="H27" s="2">
         <v>3393</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
         <v>1829</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>1829</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="2">
+        <v>42.234901428222599</v>
+      </c>
+      <c r="G28" s="2">
+        <v>-85.552101135253906</v>
+      </c>
+      <c r="H28" s="2">
         <v>3658</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
         <v>21783</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>21780</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="2">
+        <v>41.938899993900002</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-72.683197021499893</v>
+      </c>
+      <c r="H29" s="2">
         <v>43563</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2">
         <v>978</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2">
         <v>978</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="2">
+        <v>60.779800420000001</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-161.83799740000001</v>
+      </c>
+      <c r="H30" s="2">
         <v>1956</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2">
         <v>3318</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2">
         <v>3318</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="2">
+        <v>35.433601379999999</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-119.05699920000001</v>
+      </c>
+      <c r="H31" s="2">
         <v>6636</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2">
         <v>824</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2">
         <v>824</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="2">
+        <v>44.807399749755803</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-68.828102111816406</v>
+      </c>
+      <c r="H32" s="2">
         <v>1648</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2">
         <v>14028</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2">
         <v>14032</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="2">
+        <v>33.562900540000001</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-86.753501889999995</v>
+      </c>
+      <c r="H33" s="2">
         <v>28060</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
         <v>3242</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2">
         <v>3241</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45.807701110839801</v>
+      </c>
+      <c r="G34" s="2">
+        <v>-108.542999267578</v>
+      </c>
+      <c r="H34" s="2">
         <v>6483</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>2307</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2">
         <v>2307</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="2">
+        <v>46.772701263427699</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-100.746002197265</v>
+      </c>
+      <c r="H35" s="2">
         <v>4614</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
         <v>730</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2">
         <v>730</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="2">
+        <v>47.50939941</v>
+      </c>
+      <c r="G36" s="2">
+        <v>-94.933700560000005</v>
+      </c>
+      <c r="H36" s="2">
         <v>1460</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>670</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2">
         <v>670</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1"/>
+      <c r="F37" s="2">
+        <v>36.531993999999997</v>
+      </c>
+      <c r="G37" s="2">
+        <v>-93.200559999999996</v>
+      </c>
+      <c r="H37" s="2">
         <v>1340</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2">
         <v>923</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2">
         <v>922</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="2">
+        <v>48.792800903320298</v>
+      </c>
+      <c r="G38" s="2">
+        <v>-122.53800201416</v>
+      </c>
+      <c r="H38" s="2">
         <v>1845</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2">
         <v>3136</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2">
         <v>3131</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="2">
+        <v>40.477100370000002</v>
+      </c>
+      <c r="G39" s="2">
+        <v>-88.915901180000006</v>
+      </c>
+      <c r="H39" s="2">
         <v>6267</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2">
         <v>55670</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2">
         <v>55658</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="2">
+        <v>36.124500274658203</v>
+      </c>
+      <c r="G40" s="2">
+        <v>-86.678199768066406</v>
+      </c>
+      <c r="H40" s="2">
         <v>111328</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2">
         <v>11228</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D41" s="2">
         <v>11228</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="2">
+        <v>43.564399719999997</v>
+      </c>
+      <c r="G41" s="2">
+        <v>-116.22299959999999</v>
+      </c>
+      <c r="H41" s="2">
         <v>22456</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2">
         <v>110636</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D42" s="2">
         <v>110630</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="2">
+        <v>42.364299770000002</v>
+      </c>
+      <c r="G42" s="2">
+        <v>-71.005203249999994</v>
+      </c>
+      <c r="H42" s="2">
         <v>221266</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2">
         <v>1067</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2">
         <v>1067</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="2">
+        <v>29.950799942016602</v>
+      </c>
+      <c r="G43" s="2">
+        <v>-94.020698547363196</v>
+      </c>
+      <c r="H43" s="2">
         <v>2134</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2">
         <v>1016</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D44" s="2">
         <v>1015</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="2">
+        <v>31.258800506591701</v>
+      </c>
+      <c r="G44" s="2">
+        <v>-81.466499328613196</v>
+      </c>
+      <c r="H44" s="2">
         <v>2031</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2">
         <v>1407</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D45" s="2">
         <v>1408</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="2">
+        <v>18.494899749755799</v>
+      </c>
+      <c r="G45" s="2">
+        <v>-67.129402160644503</v>
+      </c>
+      <c r="H45" s="2">
         <v>2815</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2">
         <v>905</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2">
         <v>905</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="2">
+        <v>46.398300169999999</v>
+      </c>
+      <c r="G46" s="2">
+        <v>-94.138099670000003</v>
+      </c>
+      <c r="H46" s="2">
         <v>1810</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2">
         <v>2444</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2">
         <v>2446</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="2">
+        <v>25.9067993164062</v>
+      </c>
+      <c r="G47" s="2">
+        <v>-97.4259033203125</v>
+      </c>
+      <c r="H47" s="2">
         <v>4890</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2">
         <v>932</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2">
         <v>932</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="2">
+        <v>71.285402000000005</v>
+      </c>
+      <c r="G48" s="2">
+        <v>-156.766008</v>
+      </c>
+      <c r="H48" s="2">
         <v>1864</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2">
         <v>763</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2">
         <v>763</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45.954799652099602</v>
+      </c>
+      <c r="G49" s="2">
+        <v>-112.49700164794901</v>
+      </c>
+      <c r="H49" s="2">
         <v>1526</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2">
         <v>8474</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2">
         <v>8476</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="2">
+        <v>30.533199310000001</v>
+      </c>
+      <c r="G50" s="2">
+        <v>-91.149597170000007</v>
+      </c>
+      <c r="H50" s="2">
         <v>16950</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2">
         <v>4198</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2">
         <v>4197</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="2">
+        <v>44.471900939899903</v>
+      </c>
+      <c r="G51" s="2">
+        <v>-73.153297424299893</v>
+      </c>
+      <c r="H51" s="2">
         <v>8395</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2">
         <v>18383</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D52" s="2">
         <v>18381</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="2">
+        <v>42.940498349999999</v>
+      </c>
+      <c r="G52" s="2">
+        <v>-78.73220062</v>
+      </c>
+      <c r="H52" s="2">
         <v>36764</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2">
         <v>21183</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2">
         <v>21183</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="2">
+        <v>34.200698852538999</v>
+      </c>
+      <c r="G53" s="2">
+        <v>-118.359001159667</v>
+      </c>
+      <c r="H53" s="2">
         <v>42366</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2">
         <v>90851</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D54" s="2">
         <v>90845</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="2">
+        <v>39.175399779999999</v>
+      </c>
+      <c r="G54" s="2">
+        <v>-76.668296810000001</v>
+      </c>
+      <c r="H54" s="2">
         <v>181696</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2">
         <v>4020</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D55" s="2">
         <v>4020</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45.777500150000002</v>
+      </c>
+      <c r="G55" s="2">
+        <v>-111.1529999</v>
+      </c>
+      <c r="H55" s="2">
         <v>8040</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2">
         <v>7033</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D56" s="2">
         <v>7037</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="2">
+        <v>33.9388008117675</v>
+      </c>
+      <c r="G56" s="2">
+        <v>-81.119499206542898</v>
+      </c>
+      <c r="H56" s="2">
         <v>14070</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57" s="2">
         <v>6824</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D57" s="2">
         <v>6824</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" s="2">
+        <v>40.916099548339801</v>
+      </c>
+      <c r="G57" s="2">
+        <v>-81.442199707031193</v>
+      </c>
+      <c r="H57" s="2">
         <v>13648</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2">
         <v>654</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D58" s="2">
         <v>654</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="2">
+        <v>37.701000213622997</v>
+      </c>
+      <c r="G58" s="2">
+        <v>-113.098999023437</v>
+      </c>
+      <c r="H58" s="2">
         <v>1308</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59" s="2">
         <v>724</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D59" s="2">
         <v>724</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="2">
+        <v>60.4917984</v>
+      </c>
+      <c r="G59" s="2">
+        <v>-145.4779968</v>
+      </c>
+      <c r="H59" s="2">
         <v>1448</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60" s="2">
         <v>963</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D60" s="2">
         <v>963</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="2">
+        <v>41.780200960000002</v>
+      </c>
+      <c r="G60" s="2">
+        <v>-124.2369995</v>
+      </c>
+      <c r="H60" s="2">
         <v>1926</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2">
         <v>3918</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D61" s="2">
         <v>3915</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="2">
+        <v>35.035301208496001</v>
+      </c>
+      <c r="G61" s="2">
+        <v>-85.203796386718693</v>
+      </c>
+      <c r="H61" s="2">
         <v>7833</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2">
         <v>2040</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2">
         <v>2047</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="2">
+        <v>38.138599395751903</v>
+      </c>
+      <c r="G62" s="2">
+        <v>-78.452903747558594</v>
+      </c>
+      <c r="H62" s="2">
         <v>4087</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2">
         <v>13772</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D63" s="2">
         <v>13769</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="2">
+        <v>32.898601530000001</v>
+      </c>
+      <c r="G63" s="2">
+        <v>-80.040496829999995</v>
+      </c>
+      <c r="H63" s="2">
         <v>27541</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64" s="2">
         <v>1000</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D64" s="2">
         <v>999</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="2">
+        <v>39.795398710000001</v>
+      </c>
+      <c r="G64" s="2">
+        <v>-121.8580017</v>
+      </c>
+      <c r="H64" s="2">
         <v>1999</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65" s="2">
         <v>6569</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D65" s="2">
         <v>6572</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="2">
+        <v>41.884700775146399</v>
+      </c>
+      <c r="G65" s="2">
+        <v>-91.710800170898395</v>
+      </c>
+      <c r="H65" s="2">
         <v>13141</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2">
         <v>277</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D66" s="2">
         <v>278</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="2">
+        <v>46.250801086425703</v>
+      </c>
+      <c r="G66" s="2">
+        <v>-84.472396850585895</v>
+      </c>
+      <c r="H66" s="2">
         <v>555</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67" s="2">
         <v>2498</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D67" s="2">
         <v>2498</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="2">
+        <v>33.12829971</v>
+      </c>
+      <c r="G67" s="2">
+        <v>-117.2799988</v>
+      </c>
+      <c r="H67" s="2">
         <v>4996</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2">
         <v>37465</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D68" s="2">
         <v>37478</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="2">
+        <v>41.411701202400003</v>
+      </c>
+      <c r="G68" s="2">
+        <v>-81.849800109900002</v>
+      </c>
+      <c r="H68" s="2">
         <v>74943</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2">
         <v>2704</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D69" s="2">
         <v>2705</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="2">
+        <v>30.588600159999999</v>
+      </c>
+      <c r="G69" s="2">
+        <v>-96.363800049999995</v>
+      </c>
+      <c r="H69" s="2">
         <v>5409</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2">
         <v>112243</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D70" s="2">
         <v>112256</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" s="2">
+        <v>35.214000701904297</v>
+      </c>
+      <c r="G70" s="2">
+        <v>-80.943099975585895</v>
+      </c>
+      <c r="H70" s="2">
         <v>224499</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2">
         <v>27081</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2">
         <v>27077</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="2">
+        <v>39.998001098632798</v>
+      </c>
+      <c r="G71" s="2">
+        <v>-82.891899108886705</v>
+      </c>
+      <c r="H71" s="2">
         <v>54158</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2">
         <v>2416</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D72" s="2">
         <v>2416</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="2">
+        <v>40.039199830000001</v>
+      </c>
+      <c r="G72" s="2">
+        <v>-88.278099060000002</v>
+      </c>
+      <c r="H72" s="2">
         <v>4832</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2">
         <v>732</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2">
         <v>732</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="2">
+        <v>47.168399810791001</v>
+      </c>
+      <c r="G73" s="2">
+        <v>-88.489097595214801</v>
+      </c>
+      <c r="H73" s="2">
         <v>1464</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2">
         <v>521</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D74" s="2">
         <v>521</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="2">
+        <v>38.755001069999999</v>
+      </c>
+      <c r="G74" s="2">
+        <v>-109.7549973</v>
+      </c>
+      <c r="H74" s="2">
         <v>1042</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75" s="2">
         <v>865</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2">
         <v>867</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="2">
+        <v>44.520198821999998</v>
+      </c>
+      <c r="G75" s="2">
+        <v>-109.024002075</v>
+      </c>
+      <c r="H75" s="2">
         <v>1732</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2">
         <v>9143</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D76" s="2">
         <v>9140</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" s="2">
+        <v>38.805801391602003</v>
+      </c>
+      <c r="G76" s="2">
+        <v>-104.70099639893</v>
+      </c>
+      <c r="H76" s="2">
         <v>18283</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2">
         <v>1353</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D77" s="2">
         <v>1354</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" s="2">
+        <v>38.818099975585902</v>
+      </c>
+      <c r="G77" s="2">
+        <v>-92.219596862792898</v>
+      </c>
+      <c r="H77" s="2">
         <v>2707</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2">
         <v>2367</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D78" s="2">
         <v>2366</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78" s="2">
+        <v>42.908000950000002</v>
+      </c>
+      <c r="G78" s="2">
+        <v>-106.4639969</v>
+      </c>
+      <c r="H78" s="2">
         <v>4733</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2">
         <v>6676</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D79" s="2">
         <v>6674</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="2">
+        <v>27.770399093627901</v>
+      </c>
+      <c r="G79" s="2">
+        <v>-97.501197814941406</v>
+      </c>
+      <c r="H79" s="2">
         <v>13350</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2">
         <v>3148</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D80" s="2">
         <v>3149</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" s="2">
+        <v>38.373100280761697</v>
+      </c>
+      <c r="G80" s="2">
+        <v>-81.593200683593693</v>
+      </c>
+      <c r="H80" s="2">
         <v>6297</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2">
         <v>1330</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D81" s="2">
         <v>1331</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="2">
+        <v>32.516300201416001</v>
+      </c>
+      <c r="G81" s="2">
+        <v>-84.938903808593693</v>
+      </c>
+      <c r="H81" s="2">
         <v>2661</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2">
         <v>20766</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D82" s="2">
         <v>20769</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" s="2">
+        <v>39.048801422099999</v>
+      </c>
+      <c r="G82" s="2">
+        <v>-84.667800903300005</v>
+      </c>
+      <c r="H82" s="2">
         <v>41535</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2">
         <v>1400</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D83" s="2">
         <v>1401</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F83" s="2">
+        <v>44.7775993347</v>
+      </c>
+      <c r="G83" s="2">
+        <v>-89.666801452599998</v>
+      </c>
+      <c r="H83" s="2">
         <v>2801</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2">
         <v>1613</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D84" s="2">
         <v>1614</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="2">
+        <v>29.179898999999999</v>
+      </c>
+      <c r="G84" s="2">
+        <v>-81.058098000000001</v>
+      </c>
+      <c r="H84" s="2">
         <v>3227</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2">
         <v>48308</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D85" s="2">
         <v>48294</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="2">
+        <v>32.847099304199197</v>
+      </c>
+      <c r="G85" s="2">
+        <v>-96.851799011230398</v>
+      </c>
+      <c r="H85" s="2">
         <v>96602</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2">
         <v>9629</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D86" s="2">
         <v>9631</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="2">
+        <v>39.902400970458899</v>
+      </c>
+      <c r="G86" s="2">
+        <v>-84.219398498535099</v>
+      </c>
+      <c r="H86" s="2">
         <v>19260</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2">
         <v>900</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D87" s="2">
         <v>901</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F87" s="2">
+        <v>42.402000430000001</v>
+      </c>
+      <c r="G87" s="2">
+        <v>-90.709503170000005</v>
+      </c>
+      <c r="H87" s="2">
         <v>1801</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2">
         <v>72525</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D88" s="2">
         <v>72530</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" s="2">
+        <v>38.8521</v>
+      </c>
+      <c r="G88" s="2">
+        <v>-77.037696999999994</v>
+      </c>
+      <c r="H88" s="2">
         <v>145055</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2">
         <v>224205</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D89" s="2">
         <v>224067</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" s="2">
+        <v>39.861698150635</v>
+      </c>
+      <c r="G89" s="2">
+        <v>-104.672996521</v>
+      </c>
+      <c r="H89" s="2">
         <v>448272</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2">
         <v>278309</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D90" s="2">
         <v>278310</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F90" s="2">
+        <v>32.896800994872997</v>
+      </c>
+      <c r="G90" s="2">
+        <v>-97.038002014160099</v>
+      </c>
+      <c r="H90" s="2">
         <v>556619</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2">
         <v>1378</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D91" s="2">
         <v>1378</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F91" s="2">
+        <v>31.321300506591701</v>
+      </c>
+      <c r="G91" s="2">
+        <v>-85.449600219726506</v>
+      </c>
+      <c r="H91" s="2">
         <v>2756</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2">
         <v>1679</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D92" s="2">
         <v>1678</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F92" s="2">
+        <v>46.797401428199997</v>
+      </c>
+      <c r="G92" s="2">
+        <v>-102.802001953</v>
+      </c>
+      <c r="H92" s="2">
         <v>3357</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2">
         <v>77</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D93" s="2">
         <v>77</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F93" s="2">
+        <v>59.04470062</v>
+      </c>
+      <c r="G93" s="2">
+        <v>-158.50500489999999</v>
+      </c>
+      <c r="H93" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2">
         <v>1870</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D94" s="2">
         <v>1871</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" s="2">
+        <v>46.8420982361</v>
+      </c>
+      <c r="G94" s="2">
+        <v>-92.193603515599904</v>
+      </c>
+      <c r="H94" s="2">
         <v>3741</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2">
         <v>2057</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D95" s="2">
         <v>2059</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F95" s="2">
+        <v>37.151500701899998</v>
+      </c>
+      <c r="G95" s="2">
+        <v>-107.753997803</v>
+      </c>
+      <c r="H95" s="2">
         <v>4116</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2">
         <v>9916</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D96" s="2">
         <v>9910</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F96" s="2">
+        <v>41.534000396728501</v>
+      </c>
+      <c r="G96" s="2">
+        <v>-93.663101196289006</v>
+      </c>
+      <c r="H96" s="2">
         <v>19826</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2">
         <v>105980</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D97" s="2">
         <v>105984</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F97" s="2">
+        <v>42.212398529052699</v>
+      </c>
+      <c r="G97" s="2">
+        <v>-83.353401184082003</v>
+      </c>
+      <c r="H97" s="2">
         <v>211964</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2">
         <v>337</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D98" s="2">
         <v>338</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F98" s="2">
+        <v>48.114200590000003</v>
+      </c>
+      <c r="G98" s="2">
+        <v>-98.908798219999994</v>
+      </c>
+      <c r="H98" s="2">
         <v>675</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2">
         <v>730</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D99" s="2">
         <v>730</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F99" s="2">
+        <v>44.865798950195298</v>
+      </c>
+      <c r="G99" s="2">
+        <v>-91.484298706054602</v>
+      </c>
+      <c r="H99" s="2">
         <v>1460</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2">
         <v>4107</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D100" s="2">
         <v>4108</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F100" s="2">
+        <v>30.357106000000002</v>
+      </c>
+      <c r="G100" s="2">
+        <v>-85.795413999999994</v>
+      </c>
+      <c r="H100" s="2">
         <v>8215</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2">
         <v>1200</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D101" s="2">
         <v>1199</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F101" s="2">
+        <v>39.64260101</v>
+      </c>
+      <c r="G101" s="2">
+        <v>-106.91799930000001</v>
+      </c>
+      <c r="H101" s="2">
         <v>2399</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2">
         <v>969</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D102" s="2">
         <v>969</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F102" s="2">
+        <v>40.824901580810497</v>
+      </c>
+      <c r="G102" s="2">
+        <v>-115.79199981689401</v>
+      </c>
+      <c r="H102" s="2">
         <v>1938</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2">
         <v>1962</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D103" s="2">
         <v>1962</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F103" s="2">
+        <v>42.159900665283203</v>
+      </c>
+      <c r="G103" s="2">
+        <v>-76.8916015625</v>
+      </c>
+      <c r="H103" s="2">
         <v>3924</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2">
         <v>17202</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D104" s="2">
         <v>17195</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" s="2">
+        <v>31.807199480000001</v>
+      </c>
+      <c r="G104" s="2">
+        <v>-106.3779984</v>
+      </c>
+      <c r="H104" s="2">
         <v>34397</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2">
         <v>407</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D105" s="2">
         <v>407</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105" s="2">
+        <v>42.083127013400002</v>
+      </c>
+      <c r="G105" s="2">
+        <v>-80.173866748799995</v>
+      </c>
+      <c r="H105" s="2">
         <v>814</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2">
         <v>51</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D106" s="2">
         <v>52</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F106" s="2">
+        <v>45.722698211699999</v>
+      </c>
+      <c r="G106" s="2">
+        <v>-87.093696594199997</v>
+      </c>
+      <c r="H106" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2">
         <v>5228</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D107" s="2">
         <v>5226</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F107" s="2">
+        <v>44.124599456787102</v>
+      </c>
+      <c r="G107" s="2">
+        <v>-123.21199798583901</v>
+      </c>
+      <c r="H107" s="2">
         <v>10454</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2">
         <v>3232</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D108" s="2">
         <v>3232</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F108" s="2">
+        <v>38.036998748800002</v>
+      </c>
+      <c r="G108" s="2">
+        <v>-87.532402038599997</v>
+      </c>
+      <c r="H108" s="2">
         <v>6464</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2">
         <v>798</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D109" s="2">
         <v>800</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F109" s="2">
+        <v>35.073001861599998</v>
+      </c>
+      <c r="G109" s="2">
+        <v>-77.042900085399907</v>
+      </c>
+      <c r="H109" s="2">
         <v>1598</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2">
         <v>110356</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D110" s="2">
         <v>110221</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F110" s="2">
+        <v>40.692501068115199</v>
+      </c>
+      <c r="G110" s="2">
+        <v>-74.168701171875</v>
+      </c>
+      <c r="H110" s="2">
         <v>220577</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2">
         <v>3898</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D111" s="2">
         <v>3899</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F111" s="2">
+        <v>24.5561008453369</v>
+      </c>
+      <c r="G111" s="2">
+        <v>-81.759597778320298</v>
+      </c>
+      <c r="H111" s="2">
         <v>7797</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2">
         <v>2617</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D112" s="2">
         <v>2618</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F112" s="2">
+        <v>64.815101619999993</v>
+      </c>
+      <c r="G112" s="2">
+        <v>-147.8560028</v>
+      </c>
+      <c r="H112" s="2">
         <v>5235</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2">
         <v>5209</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D113" s="2">
         <v>5203</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F113" s="2">
+        <v>46.920700073242102</v>
+      </c>
+      <c r="G113" s="2">
+        <v>-96.815803527832003</v>
+      </c>
+      <c r="H113" s="2">
         <v>10412</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2">
         <v>10465</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D114" s="2">
         <v>10467</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F114" s="2">
+        <v>36.776199340820298</v>
+      </c>
+      <c r="G114" s="2">
+        <v>-119.718002319335</v>
+      </c>
+      <c r="H114" s="2">
         <v>20932</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2">
         <v>2118</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D115" s="2">
         <v>2114</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="2">
+        <v>34.991199493408203</v>
+      </c>
+      <c r="G115" s="2">
+        <v>-78.880302429199205</v>
+      </c>
+      <c r="H115" s="2">
         <v>4232</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2">
         <v>2070</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D116" s="2">
         <v>2071</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F116" s="2">
+        <v>48.310501098632798</v>
+      </c>
+      <c r="G116" s="2">
+        <v>-114.25599670410099</v>
+      </c>
+      <c r="H116" s="2">
         <v>4141</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2">
         <v>1835</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D117" s="2">
         <v>1835</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F117" s="2">
+        <v>35.138500209999997</v>
+      </c>
+      <c r="G117" s="2">
+        <v>-111.67099760000001</v>
+      </c>
+      <c r="H117" s="2">
         <v>3670</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2">
         <v>64117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D118" s="2">
         <v>64109</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F118" s="2">
+        <v>26.0725994110107</v>
+      </c>
+      <c r="G118" s="2">
+        <v>-80.152702331542898</v>
+      </c>
+      <c r="H118" s="2">
         <v>128226</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2">
         <v>4307</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D119" s="2">
         <v>4308</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F119" s="2">
+        <v>42.965400695800703</v>
+      </c>
+      <c r="G119" s="2">
+        <v>-83.743598937988196</v>
+      </c>
+      <c r="H119" s="2">
         <v>8615</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2">
         <v>449</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D120" s="2">
         <v>449</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F120" s="2">
+        <v>38.950901031499903</v>
+      </c>
+      <c r="G120" s="2">
+        <v>-95.663597106899999</v>
+      </c>
+      <c r="H120" s="2">
         <v>898</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2">
         <v>6920</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D121" s="2">
         <v>6918</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F121" s="2">
+        <v>43.582000732399997</v>
+      </c>
+      <c r="G121" s="2">
+        <v>-96.741897582999997</v>
+      </c>
+      <c r="H121" s="2">
         <v>13838</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B122" s="2">
         <v>2454</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D122" s="2">
         <v>2454</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F122" s="2">
+        <v>35.336601257324197</v>
+      </c>
+      <c r="G122" s="2">
+        <v>-94.367401123046804</v>
+      </c>
+      <c r="H122" s="2">
         <v>4908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2">
         <v>3942</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D123" s="2">
         <v>3943</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F123" s="2">
+        <v>40.978500369999999</v>
+      </c>
+      <c r="G123" s="2">
+        <v>-85.195098880000003</v>
+      </c>
+      <c r="H123" s="2">
         <v>7885</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2">
         <v>1447</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D124" s="2">
         <v>1447</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F124" s="2">
+        <v>44.348899841299897</v>
+      </c>
+      <c r="G124" s="2">
+        <v>-105.539001465</v>
+      </c>
+      <c r="H124" s="2">
         <v>2894</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2">
         <v>729</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D125" s="2">
         <v>729</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F125" s="2">
+        <v>37.927501678500001</v>
+      </c>
+      <c r="G125" s="2">
+        <v>-100.723999023</v>
+      </c>
+      <c r="H125" s="2">
         <v>1458</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2">
         <v>9221</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D126" s="2">
         <v>9218</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F126" s="2">
+        <v>47.619899749755803</v>
+      </c>
+      <c r="G126" s="2">
+        <v>-117.53399658203099</v>
+      </c>
+      <c r="H126" s="2">
         <v>18439</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2">
         <v>771</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D127" s="2">
         <v>772</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F127" s="2">
+        <v>47.949299000000003</v>
+      </c>
+      <c r="G127" s="2">
+        <v>-97.176102</v>
+      </c>
+      <c r="H127" s="2">
         <v>1543</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2">
         <v>709</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D128" s="2">
         <v>709</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F128" s="2">
+        <v>32.383998870849602</v>
+      </c>
+      <c r="G128" s="2">
+        <v>-94.711502075195298</v>
+      </c>
+      <c r="H128" s="2">
         <v>1418</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2">
         <v>3712</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D129" s="2">
         <v>3710</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F129" s="2">
+        <v>39.122398376500001</v>
+      </c>
+      <c r="G129" s="2">
+        <v>-108.527000427</v>
+      </c>
+      <c r="H129" s="2">
         <v>7422</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B130" s="2">
         <v>2652</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D130" s="2">
         <v>2658</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F130" s="2">
+        <v>29.690099716199999</v>
+      </c>
+      <c r="G130" s="2">
+        <v>-82.271797180199997</v>
+      </c>
+      <c r="H130" s="2">
         <v>5310</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2">
         <v>4292</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D131" s="2">
         <v>4292</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F131" s="2">
+        <v>30.407300949096602</v>
+      </c>
+      <c r="G131" s="2">
+        <v>-89.070098876953097</v>
+      </c>
+      <c r="H131" s="2">
         <v>8584</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2">
         <v>4963</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D132" s="2">
         <v>4964</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F132" s="2">
+        <v>44.485099792480398</v>
+      </c>
+      <c r="G132" s="2">
+        <v>-88.129600524902301</v>
+      </c>
+      <c r="H132" s="2">
         <v>9927</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2">
         <v>676</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D133" s="2">
         <v>676</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F133" s="2">
+        <v>40.967498779296797</v>
+      </c>
+      <c r="G133" s="2">
+        <v>-98.309600830078097</v>
+      </c>
+      <c r="H133" s="2">
         <v>1352</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2">
         <v>4786</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D134" s="2">
         <v>4787</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F134" s="2">
+        <v>31.067199707</v>
+      </c>
+      <c r="G134" s="2">
+        <v>-97.828903198199995</v>
+      </c>
+      <c r="H134" s="2">
         <v>9573</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B135" s="2">
         <v>11510</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D135" s="2">
         <v>11513</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F135" s="2">
+        <v>42.880798339999998</v>
+      </c>
+      <c r="G135" s="2">
+        <v>-85.522796630000002</v>
+      </c>
+      <c r="H135" s="2">
         <v>23023</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2">
         <v>8836</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D136" s="2">
         <v>8831</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F136" s="2">
+        <v>36.097801208496001</v>
+      </c>
+      <c r="G136" s="2">
+        <v>-79.937301635742102</v>
+      </c>
+      <c r="H136" s="2">
         <v>17667</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2">
         <v>7364</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D137" s="2">
         <v>7363</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F137" s="2">
+        <v>34.895698547400002</v>
+      </c>
+      <c r="G137" s="2">
+        <v>-82.218902587900004</v>
+      </c>
+      <c r="H137" s="2">
         <v>14727</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2">
         <v>77</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D138" s="2">
         <v>77</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F138" s="2">
+        <v>58.4253006</v>
+      </c>
+      <c r="G138" s="2">
+        <v>-135.70700070000001</v>
+      </c>
+      <c r="H138" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2">
         <v>1971</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D139" s="2">
         <v>1971</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F139" s="2">
+        <v>47.481998439999998</v>
+      </c>
+      <c r="G139" s="2">
+        <v>-111.37100220000001</v>
+      </c>
+      <c r="H139" s="2">
         <v>3942</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2">
         <v>1014</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D140" s="2">
         <v>1016</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F140" s="2">
+        <v>33.450298309299903</v>
+      </c>
+      <c r="G140" s="2">
+        <v>-88.591400146500007</v>
+      </c>
+      <c r="H140" s="2">
         <v>2030</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2">
         <v>646</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D141" s="2">
         <v>646</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F141" s="2">
+        <v>38.533901210000003</v>
+      </c>
+      <c r="G141" s="2">
+        <v>-106.9329987</v>
+      </c>
+      <c r="H141" s="2">
         <v>1292</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2">
         <v>365</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D142" s="2">
         <v>366</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F142" s="2">
+        <v>13.4834003448</v>
+      </c>
+      <c r="G142" s="2">
+        <v>144.79600524899999</v>
+      </c>
+      <c r="H142" s="2">
         <v>731</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2">
         <v>647</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D143" s="2">
         <v>646</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F143" s="2">
+        <v>40.481201169999999</v>
+      </c>
+      <c r="G143" s="2">
+        <v>-107.21800229999999</v>
+      </c>
+      <c r="H143" s="2">
         <v>1293</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B144" s="2">
         <v>633</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D144" s="2">
         <v>633</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F144" s="2">
+        <v>47.386600489999999</v>
+      </c>
+      <c r="G144" s="2">
+        <v>-92.838996890000004</v>
+      </c>
+      <c r="H144" s="2">
         <v>1266</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B145" s="2">
         <v>1468</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D145" s="2">
         <v>1468</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F145" s="2">
+        <v>46.606800079345703</v>
+      </c>
+      <c r="G145" s="2">
+        <v>-111.98300170898401</v>
+      </c>
+      <c r="H145" s="2">
         <v>2936</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2">
         <v>46313</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D146" s="2">
         <v>46310</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F146" s="2">
+        <v>21.318700790405199</v>
+      </c>
+      <c r="G146" s="2">
+        <v>-157.92199707031199</v>
+      </c>
+      <c r="H146" s="2">
         <v>92623</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B147" s="2">
         <v>621</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D147" s="2">
         <v>622</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F147" s="2">
+        <v>32.6875</v>
+      </c>
+      <c r="G147" s="2">
+        <v>-103.2170029</v>
+      </c>
+      <c r="H147" s="2">
         <v>1243</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B148" s="2">
         <v>59506</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D148" s="2">
         <v>59503</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F148" s="2">
+        <v>29.645399090000002</v>
+      </c>
+      <c r="G148" s="2">
+        <v>-95.278900149999998</v>
+      </c>
+      <c r="H148" s="2">
         <v>119009</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B149" s="2">
         <v>7721</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D149" s="2">
         <v>7719</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F149" s="2">
+        <v>41.067001342773402</v>
+      </c>
+      <c r="G149" s="2">
+        <v>-73.707603454589801</v>
+      </c>
+      <c r="H149" s="2">
         <v>15440</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B150" s="2">
         <v>3792</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D150" s="2">
         <v>3790</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F150" s="2">
+        <v>26.228500366210898</v>
+      </c>
+      <c r="G150" s="2">
+        <v>-97.654403686523395</v>
+      </c>
+      <c r="H150" s="2">
         <v>7582</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B151" s="2">
         <v>6336</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D151" s="2">
         <v>6332</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F151" s="2">
+        <v>34.637199401855</v>
+      </c>
+      <c r="G151" s="2">
+        <v>-86.775100708007997</v>
+      </c>
+      <c r="H151" s="2">
         <v>12668</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B152" s="2">
         <v>76</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D152" s="2">
         <v>76</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F152" s="2">
+        <v>41.669300079999999</v>
+      </c>
+      <c r="G152" s="2">
+        <v>-70.280403140000004</v>
+      </c>
+      <c r="H152" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B153" s="2">
         <v>262</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D153" s="2">
         <v>263</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F153" s="2">
+        <v>38.842201230000001</v>
+      </c>
+      <c r="G153" s="2">
+        <v>-99.273200990000007</v>
+      </c>
+      <c r="H153" s="2">
         <v>525</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B154" s="2">
         <v>58097</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D154" s="2">
         <v>57985</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F154" s="2">
+        <v>38.944499970000003</v>
+      </c>
+      <c r="G154" s="2">
+        <v>-77.455802919999996</v>
+      </c>
+      <c r="H154" s="2">
         <v>116082</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B155" s="2">
         <v>174210</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D155" s="2">
         <v>174235</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F155" s="2">
+        <v>29.984399795532202</v>
+      </c>
+      <c r="G155" s="2">
+        <v>-95.341400146484304</v>
+      </c>
+      <c r="H155" s="2">
         <v>348445</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B156" s="2">
         <v>9201</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D156" s="2">
         <v>9196</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F156" s="2">
+        <v>37.649898529052699</v>
+      </c>
+      <c r="G156" s="2">
+        <v>-97.433097839355398</v>
+      </c>
+      <c r="H156" s="2">
         <v>18397</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B157" s="2">
         <v>2990</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D157" s="2">
         <v>2994</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F157" s="2">
+        <v>43.514598846435497</v>
+      </c>
+      <c r="G157" s="2">
+        <v>-112.070999145507</v>
+      </c>
+      <c r="H157" s="2">
         <v>5984</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B158" s="2">
         <v>706</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D158" s="2">
         <v>711</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F158" s="2">
+        <v>39.67869949</v>
+      </c>
+      <c r="G158" s="2">
+        <v>-75.606498720000005</v>
+      </c>
+      <c r="H158" s="2">
         <v>1417</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B159" s="2">
         <v>2306</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D159" s="2">
         <v>2307</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F159" s="2">
+        <v>34.270599365234297</v>
+      </c>
+      <c r="G159" s="2">
+        <v>-77.902603149414006</v>
+      </c>
+      <c r="H159" s="2">
         <v>4613</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B160" s="2">
         <v>679</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D160" s="2">
         <v>679</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F160" s="2">
+        <v>45.818401336699999</v>
+      </c>
+      <c r="G160" s="2">
+        <v>-88.114501953100003</v>
+      </c>
+      <c r="H160" s="2">
         <v>1358</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B161" s="2">
         <v>28527</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D161" s="2">
         <v>28532</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F161" s="2">
+        <v>39.717300000000002</v>
+      </c>
+      <c r="G161" s="2">
+        <v>-86.294403000000003</v>
+      </c>
+      <c r="H161" s="2">
         <v>57059</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B162" s="2">
         <v>646</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D162" s="2">
         <v>646</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F162" s="2">
+        <v>48.566200256347599</v>
+      </c>
+      <c r="G162" s="2">
+        <v>-93.403099060058594</v>
+      </c>
+      <c r="H162" s="2">
         <v>1292</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B163" s="2">
         <v>2816</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D163" s="2">
         <v>2836</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F163" s="2">
+        <v>48.177898407000001</v>
+      </c>
+      <c r="G163" s="2">
+        <v>-103.64199829099999</v>
+      </c>
+      <c r="H163" s="2">
         <v>5652</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B164" s="2">
         <v>4959</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D164" s="2">
         <v>4957</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F164" s="2">
+        <v>40.795200350000002</v>
+      </c>
+      <c r="G164" s="2">
+        <v>-73.100196839999995</v>
+      </c>
+      <c r="H164" s="2">
         <v>9916</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B165" s="2">
         <v>6081</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D165" s="2">
         <v>6079</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F165" s="2">
+        <v>19.721399307250898</v>
+      </c>
+      <c r="G165" s="2">
+        <v>-155.04800415039</v>
+      </c>
+      <c r="H165" s="2">
         <v>12160</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B166" s="2">
         <v>3565</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D166" s="2">
         <v>3565</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F166" s="2">
+        <v>43.6072998046875</v>
+      </c>
+      <c r="G166" s="2">
+        <v>-110.737998962402</v>
+      </c>
+      <c r="H166" s="2">
         <v>7130</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B167" s="2">
         <v>8092</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D167" s="2">
         <v>8089</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F167" s="2">
+        <v>32.3111991882</v>
+      </c>
+      <c r="G167" s="2">
+        <v>-90.075897216800001</v>
+      </c>
+      <c r="H167" s="2">
         <v>16181</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B168" s="2">
         <v>21993</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D168" s="2">
         <v>21994</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F168" s="2">
+        <v>30.4941005706787</v>
+      </c>
+      <c r="G168" s="2">
+        <v>-81.687896728515597</v>
+      </c>
+      <c r="H168" s="2">
         <v>43987</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B169" s="2">
         <v>100560</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D169" s="2">
         <v>100550</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F169" s="2">
+        <v>40.639801030000001</v>
+      </c>
+      <c r="G169" s="2">
+        <v>-73.778900149999998</v>
+      </c>
+      <c r="H169" s="2">
         <v>201110</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B170" s="2">
         <v>709</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D170" s="2">
         <v>709</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F170" s="2">
+        <v>37.151798248291001</v>
+      </c>
+      <c r="G170" s="2">
+        <v>-94.498298645019503</v>
+      </c>
+      <c r="H170" s="2">
         <v>1418</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B171" s="2">
         <v>518</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D171" s="2">
         <v>521</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F171" s="2">
+        <v>46.929698940000002</v>
+      </c>
+      <c r="G171" s="2">
+        <v>-98.678199770000006</v>
+      </c>
+      <c r="H171" s="2">
         <v>1039</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B172" s="2">
         <v>4288</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D172" s="2">
         <v>4288</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E172" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F172" s="2">
+        <v>58.3549995422363</v>
+      </c>
+      <c r="G172" s="2">
+        <v>-134.57600402832</v>
+      </c>
+      <c r="H172" s="2">
         <v>8576</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B173" s="2">
         <v>10992</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D173" s="2">
         <v>10992</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F173" s="2">
+        <v>19.7388000488281</v>
+      </c>
+      <c r="G173" s="2">
+        <v>-156.04600524902301</v>
+      </c>
+      <c r="H173" s="2">
         <v>21984</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B174" s="2">
         <v>2387</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D174" s="2">
         <v>2387</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F174" s="2">
+        <v>55.355598450000002</v>
+      </c>
+      <c r="G174" s="2">
+        <v>-131.71400449999999</v>
+      </c>
+      <c r="H174" s="2">
         <v>4774</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B175" s="2">
         <v>1777</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D175" s="2">
         <v>1777</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F175" s="2">
+        <v>42.778701782226499</v>
+      </c>
+      <c r="G175" s="2">
+        <v>-84.58740234375</v>
+      </c>
+      <c r="H175" s="2">
         <v>3554</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B176" s="2">
         <v>728</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D176" s="2">
         <v>728</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E176" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F176" s="2">
+        <v>41.312099456787102</v>
+      </c>
+      <c r="G176" s="2">
+        <v>-105.675003051757</v>
+      </c>
+      <c r="H176" s="2">
         <v>1456</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B177" s="2">
         <v>137055</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D177" s="2">
         <v>137058</v>
       </c>
-      <c r="E177" s="2">
+      <c r="E177" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F177" s="2">
+        <v>36.08010101</v>
+      </c>
+      <c r="G177" s="2">
+        <v>-115.15200040000001</v>
+      </c>
+      <c r="H177" s="2">
         <v>274113</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B178" s="2">
         <v>1516</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D178" s="2">
         <v>1516</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F178" s="2">
+        <v>34.567699432399998</v>
+      </c>
+      <c r="G178" s="2">
+        <v>-98.416603088399995</v>
+      </c>
+      <c r="H178" s="2">
         <v>3032</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B179" s="2">
         <v>221932</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D179" s="2">
         <v>221941</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F179" s="2">
+        <v>33.942501069999999</v>
+      </c>
+      <c r="G179" s="2">
+        <v>-118.4079971</v>
+      </c>
+      <c r="H179" s="2">
         <v>443873</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B180" s="2">
         <v>6496</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D180" s="2">
         <v>6495</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F180" s="2">
+        <v>33.663600921630803</v>
+      </c>
+      <c r="G180" s="2">
+        <v>-101.822998046875</v>
+      </c>
+      <c r="H180" s="2">
         <v>12991</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B181" s="2">
         <v>2042</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D181" s="2">
         <v>2042</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E181" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F181" s="2">
+        <v>30.126100540161101</v>
+      </c>
+      <c r="G181" s="2">
+        <v>-93.223297119140597</v>
+      </c>
+      <c r="H181" s="2">
         <v>4084</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B182" s="2">
         <v>5764</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D182" s="2">
         <v>5768</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F182" s="2">
+        <v>38.0364990234375</v>
+      </c>
+      <c r="G182" s="2">
+        <v>-84.605903625488196</v>
+      </c>
+      <c r="H182" s="2">
         <v>11532</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B183" s="2">
         <v>6408</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D183" s="2">
         <v>6407</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F183" s="2">
+        <v>30.20529938</v>
+      </c>
+      <c r="G183" s="2">
+        <v>-91.987602229999993</v>
+      </c>
+      <c r="H183" s="2">
         <v>12815</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B184" s="2">
         <v>106966</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D184" s="2">
         <v>106952</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F184" s="2">
+        <v>40.77719879</v>
+      </c>
+      <c r="G184" s="2">
+        <v>-73.872596740000006</v>
+      </c>
+      <c r="H184" s="2">
         <v>213918</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B185" s="2">
         <v>11546</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D185" s="2">
         <v>11545</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F185" s="2">
+        <v>33.817699429999998</v>
+      </c>
+      <c r="G185" s="2">
+        <v>-118.15200040000001</v>
+      </c>
+      <c r="H185" s="2">
         <v>23091</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B186" s="2">
         <v>11164</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D186" s="2">
         <v>11165</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F186" s="2">
+        <v>21.975999832153299</v>
+      </c>
+      <c r="G186" s="2">
+        <v>-159.33900451660099</v>
+      </c>
+      <c r="H186" s="2">
         <v>22329</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B187" s="2">
         <v>13920</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D187" s="2">
         <v>13915</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E187" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F187" s="2">
+        <v>34.729400634799902</v>
+      </c>
+      <c r="G187" s="2">
+        <v>-92.224296569800003</v>
+      </c>
+      <c r="H187" s="2">
         <v>27835</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B188" s="2">
         <v>310</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D188" s="2">
         <v>308</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E188" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F188" s="2">
+        <v>42.156101226806598</v>
+      </c>
+      <c r="G188" s="2">
+        <v>-121.73300170898401</v>
+      </c>
+      <c r="H188" s="2">
         <v>618</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B189" s="2">
         <v>2444</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D189" s="2">
         <v>2443</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E189" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F189" s="2">
+        <v>40.851001739501903</v>
+      </c>
+      <c r="G189" s="2">
+        <v>-96.759201049804602</v>
+      </c>
+      <c r="H189" s="2">
         <v>4887</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B190" s="2">
         <v>2398</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D190" s="2">
         <v>2398</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E190" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F190" s="2">
+        <v>27.543800354003899</v>
+      </c>
+      <c r="G190" s="2">
+        <v>-99.461601257324205</v>
+      </c>
+      <c r="H190" s="2">
         <v>4796</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B191" s="2">
         <v>1175</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D191" s="2">
         <v>1175</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E191" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F191" s="2">
+        <v>43.879002</v>
+      </c>
+      <c r="G191" s="2">
+        <v>-91.256698999999998</v>
+      </c>
+      <c r="H191" s="2">
         <v>2350</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B192" s="2">
         <v>649</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D192" s="2">
         <v>649</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E192" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F192" s="2">
+        <v>46.374500274658203</v>
+      </c>
+      <c r="G192" s="2">
+        <v>-117.014999389648</v>
+      </c>
+      <c r="H192" s="2">
         <v>1298</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B193" s="2">
         <v>9949</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D193" s="2">
         <v>9947</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F193" s="2">
+        <v>31.942499160766602</v>
+      </c>
+      <c r="G193" s="2">
+        <v>-102.202003479003</v>
+      </c>
+      <c r="H193" s="2">
         <v>19896</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B194" s="2">
         <v>1475</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D194" s="2">
         <v>1475</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E194" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F194" s="2">
+        <v>43.532901763916001</v>
+      </c>
+      <c r="G194" s="2">
+        <v>-84.079597473144503</v>
+      </c>
+      <c r="H194" s="2">
         <v>2950</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B195" s="2">
         <v>44767</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D195" s="2">
         <v>44763</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E195" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F195" s="2">
+        <v>39.297600000000003</v>
+      </c>
+      <c r="G195" s="2">
+        <v>-94.713898</v>
+      </c>
+      <c r="H195" s="2">
         <v>89530</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B196" s="2">
         <v>1</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="2"/>
-      <c r="E196" s="2">
+      <c r="E196" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F196" s="2">
+        <v>32.692798614501903</v>
+      </c>
+      <c r="G196" s="2">
+        <v>-83.649200439453097</v>
+      </c>
+      <c r="H196" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B197" s="2">
         <v>110417</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D197" s="2">
         <v>110409</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F197" s="2">
+        <v>28.429399490356399</v>
+      </c>
+      <c r="G197" s="2">
+        <v>-81.308998107910099</v>
+      </c>
+      <c r="H197" s="2">
         <v>220826</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B198" s="2">
         <v>4012</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D198" s="2">
         <v>4008</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F198" s="2">
+        <v>40.193500518800001</v>
+      </c>
+      <c r="G198" s="2">
+        <v>-76.763397216800001</v>
+      </c>
+      <c r="H198" s="2">
         <v>8020</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B199" s="2">
         <v>88501</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D199" s="2">
         <v>88498</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F199" s="2">
+        <v>41.785999298095703</v>
+      </c>
+      <c r="G199" s="2">
+        <v>-87.752403259277301</v>
+      </c>
+      <c r="H199" s="2">
         <v>176999</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B200" s="2">
         <v>150</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D200" s="2">
         <v>150</v>
       </c>
-      <c r="E200" s="2">
+      <c r="E200" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F200" s="2">
+        <v>32.3325996398925</v>
+      </c>
+      <c r="G200" s="2">
+        <v>-88.751899719238196</v>
+      </c>
+      <c r="H200" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B201" s="2">
         <v>15038</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D201" s="2">
         <v>15038</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F201" s="2">
+        <v>35.042400360107401</v>
+      </c>
+      <c r="G201" s="2">
+        <v>-89.976699829101506</v>
+      </c>
+      <c r="H201" s="2">
         <v>30076</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B202" s="2">
         <v>4448</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D202" s="2">
         <v>4449</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F202" s="2">
+        <v>26.17580032</v>
+      </c>
+      <c r="G202" s="2">
+        <v>-98.238601680000002</v>
+      </c>
+      <c r="H202" s="2">
         <v>8897</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B203" s="2">
         <v>3119</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D203" s="2">
         <v>3118</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F203" s="2">
+        <v>42.374198913574197</v>
+      </c>
+      <c r="G203" s="2">
+        <v>-122.873001098632</v>
+      </c>
+      <c r="H203" s="2">
         <v>6237</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B204" s="2">
         <v>3543</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D204" s="2">
         <v>3540</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F204" s="2">
+        <v>32.300598139999998</v>
+      </c>
+      <c r="G204" s="2">
+        <v>-86.393997189999993</v>
+      </c>
+      <c r="H204" s="2">
         <v>7083</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B205" s="2">
         <v>1782</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D205" s="2">
         <v>1782</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F205" s="2">
+        <v>39.140998840332003</v>
+      </c>
+      <c r="G205" s="2">
+        <v>-96.670799255371094</v>
+      </c>
+      <c r="H205" s="2">
         <v>3564</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B206" s="2">
         <v>6754</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D206" s="2">
         <v>6753</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F206" s="2">
+        <v>42.932598114013601</v>
+      </c>
+      <c r="G206" s="2">
+        <v>-71.435699462890597</v>
+      </c>
+      <c r="H206" s="2">
         <v>13507</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B207" s="2">
         <v>82224</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D207" s="2">
         <v>82227</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F207" s="2">
+        <v>25.793199539184499</v>
+      </c>
+      <c r="G207" s="2">
+        <v>-80.290603637695298</v>
+      </c>
+      <c r="H207" s="2">
         <v>164451</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B208" s="2">
         <v>33654</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D208" s="2">
         <v>33653</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F208" s="2">
+        <v>42.947200775146399</v>
+      </c>
+      <c r="G208" s="2">
+        <v>-87.896598815917898</v>
+      </c>
+      <c r="H208" s="2">
         <v>67307</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B209" s="2">
         <v>729</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D209" s="2">
         <v>729</v>
       </c>
-      <c r="E209" s="2">
+      <c r="E209" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F209" s="2">
+        <v>43.169498439999998</v>
+      </c>
+      <c r="G209" s="2">
+        <v>-86.238197330000006</v>
+      </c>
+      <c r="H209" s="2">
         <v>1458</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B210" s="2">
         <v>1384</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D210" s="2">
         <v>1386</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F210" s="2">
+        <v>28.102800369262599</v>
+      </c>
+      <c r="G210" s="2">
+        <v>-80.645301818847599</v>
+      </c>
+      <c r="H210" s="2">
         <v>2770</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B211" s="2">
         <v>4598</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D211" s="2">
         <v>4599</v>
       </c>
-      <c r="E211" s="2">
+      <c r="E211" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F211" s="2">
+        <v>41.448501586913999</v>
+      </c>
+      <c r="G211" s="2">
+        <v>-90.507499694824205</v>
+      </c>
+      <c r="H211" s="2">
         <v>9197</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B212" s="2">
         <v>3277</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D212" s="2">
         <v>3279</v>
       </c>
-      <c r="E212" s="2">
+      <c r="E212" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F212" s="2">
+        <v>32.510898590087798</v>
+      </c>
+      <c r="G212" s="2">
+        <v>-92.037696838378906</v>
+      </c>
+      <c r="H212" s="2">
         <v>6556</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B213" s="2">
         <v>241</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D213" s="2">
         <v>242</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F213" s="2">
+        <v>37.624099729999998</v>
+      </c>
+      <c r="G213" s="2">
+        <v>-118.83799740000001</v>
+      </c>
+      <c r="H213" s="2">
         <v>483</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B214" s="2">
         <v>5551</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D214" s="2">
         <v>5548</v>
       </c>
-      <c r="E214" s="2">
+      <c r="E214" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F214" s="2">
+        <v>30.691200256348001</v>
+      </c>
+      <c r="G214" s="2">
+        <v>-88.242797851562003</v>
+      </c>
+      <c r="H214" s="2">
         <v>11099</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B215" s="2">
         <v>465</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D215" s="2">
         <v>464</v>
       </c>
-      <c r="E215" s="2">
+      <c r="E215" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F215" s="2">
+        <v>37.625801090000003</v>
+      </c>
+      <c r="G215" s="2">
+        <v>-120.95400239999999</v>
+      </c>
+      <c r="H215" s="2">
         <v>929</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B216" s="2">
         <v>1594</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D216" s="2">
         <v>1595</v>
       </c>
-      <c r="E216" s="2">
+      <c r="E216" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F216" s="2">
+        <v>48.2593994140625</v>
+      </c>
+      <c r="G216" s="2">
+        <v>-101.27999877929599</v>
+      </c>
+      <c r="H216" s="2">
         <v>3189</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B217" s="2">
         <v>314</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D217" s="2">
         <v>314</v>
       </c>
-      <c r="E217" s="2">
+      <c r="E217" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F217" s="2">
+        <v>46.353599548299997</v>
+      </c>
+      <c r="G217" s="2">
+        <v>-87.395401000999996</v>
+      </c>
+      <c r="H217" s="2">
         <v>628</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B218" s="2">
         <v>4632</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D218" s="2">
         <v>4632</v>
       </c>
-      <c r="E218" s="2">
+      <c r="E218" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F218" s="2">
+        <v>36.587001800537102</v>
+      </c>
+      <c r="G218" s="2">
+        <v>-121.843002319335</v>
+      </c>
+      <c r="H218" s="2">
         <v>9264</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B219" s="2">
         <v>10620</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D219" s="2">
         <v>10628</v>
       </c>
-      <c r="E219" s="2">
+      <c r="E219" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F219" s="2">
+        <v>43.139900207519503</v>
+      </c>
+      <c r="G219" s="2">
+        <v>-89.337501525878906</v>
+      </c>
+      <c r="H219" s="2">
         <v>21248</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B220" s="2">
         <v>3432</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D220" s="2">
         <v>3433</v>
       </c>
-      <c r="E220" s="2">
+      <c r="E220" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F220" s="2">
+        <v>46.916301730000001</v>
+      </c>
+      <c r="G220" s="2">
+        <v>-114.09100340000001</v>
+      </c>
+      <c r="H220" s="2">
         <v>6865</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B221" s="2">
         <v>106218</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D221" s="2">
         <v>106202</v>
       </c>
-      <c r="E221" s="2">
+      <c r="E221" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F221" s="2">
+        <v>44.881999969499901</v>
+      </c>
+      <c r="G221" s="2">
+        <v>-93.221801757799994</v>
+      </c>
+      <c r="H221" s="2">
         <v>212420</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B222" s="2">
         <v>40490</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D222" s="2">
         <v>40490</v>
       </c>
-      <c r="E222" s="2">
+      <c r="E222" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F222" s="2">
+        <v>29.993400573730401</v>
+      </c>
+      <c r="G222" s="2">
+        <v>-90.258003234863196</v>
+      </c>
+      <c r="H222" s="2">
         <v>80980</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B223" s="2">
         <v>970</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D223" s="2">
         <v>971</v>
       </c>
-      <c r="E223" s="2">
+      <c r="E223" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F223" s="2">
+        <v>38.509799957299997</v>
+      </c>
+      <c r="G223" s="2">
+        <v>-107.893997192</v>
+      </c>
+      <c r="H223" s="2">
         <v>1941</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B224" s="2">
         <v>161</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D224" s="2">
         <v>161</v>
       </c>
-      <c r="E224" s="2">
+      <c r="E224" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F224" s="2">
+        <v>41.393100738500003</v>
+      </c>
+      <c r="G224" s="2">
+        <v>-70.6143035889</v>
+      </c>
+      <c r="H224" s="2">
         <v>322</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B225" s="2">
         <v>1717</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D225" s="2">
         <v>1715</v>
       </c>
-      <c r="E225" s="2">
+      <c r="E225" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F225" s="2">
+        <v>33.679698944099997</v>
+      </c>
+      <c r="G225" s="2">
+        <v>-78.928298950200002</v>
+      </c>
+      <c r="H225" s="2">
         <v>3432</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B226" s="2">
         <v>1401</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D226" s="2">
         <v>1402</v>
       </c>
-      <c r="E226" s="2">
+      <c r="E226" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F226" s="2">
+        <v>34.829200744600001</v>
+      </c>
+      <c r="G226" s="2">
+        <v>-77.612098693799993</v>
+      </c>
+      <c r="H226" s="2">
         <v>2803</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B227" s="2">
         <v>43265</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D227" s="2">
         <v>43266</v>
       </c>
-      <c r="E227" s="2">
+      <c r="E227" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F227" s="2">
+        <v>37.721298217773402</v>
+      </c>
+      <c r="G227" s="2">
+        <v>-122.22100067138599</v>
+      </c>
+      <c r="H227" s="2">
         <v>86531</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B228" s="2">
         <v>21955</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D228" s="2">
         <v>21953</v>
       </c>
-      <c r="E228" s="2">
+      <c r="E228" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F228" s="2">
+        <v>20.8985996246337</v>
+      </c>
+      <c r="G228" s="2">
+        <v>-156.42999267578099</v>
+      </c>
+      <c r="H228" s="2">
         <v>43908</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B229" s="2">
         <v>20723</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D229" s="2">
         <v>20727</v>
       </c>
-      <c r="E229" s="2">
+      <c r="E229" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F229" s="2">
+        <v>35.393100738525298</v>
+      </c>
+      <c r="G229" s="2">
+        <v>-97.600700378417898</v>
+      </c>
+      <c r="H229" s="2">
         <v>41450</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B230" s="2">
         <v>19709</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D230" s="2">
         <v>19718</v>
       </c>
-      <c r="E230" s="2">
+      <c r="E230" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F230" s="2">
+        <v>41.303199768066399</v>
+      </c>
+      <c r="G230" s="2">
+        <v>-95.894096374511705</v>
+      </c>
+      <c r="H230" s="2">
         <v>39427</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B231" s="2">
         <v>721</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D231" s="2">
         <v>721</v>
       </c>
-      <c r="E231" s="2">
+      <c r="E231" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F231" s="2">
+        <v>64.512199401855398</v>
+      </c>
+      <c r="G231" s="2">
+        <v>-165.44500732421801</v>
+      </c>
+      <c r="H231" s="2">
         <v>1442</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B232" s="2">
         <v>20487</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D232" s="2">
         <v>20485</v>
       </c>
-      <c r="E232" s="2">
+      <c r="E232" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F232" s="2">
+        <v>34.055999755859297</v>
+      </c>
+      <c r="G232" s="2">
+        <v>-117.60099792480401</v>
+      </c>
+      <c r="H232" s="2">
         <v>40972</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B233" s="2">
         <v>287036</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D233" s="2">
         <v>287377</v>
       </c>
-      <c r="E233" s="2">
+      <c r="E233" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F233" s="2">
+        <v>41.978599549999998</v>
+      </c>
+      <c r="G233" s="2">
+        <v>-87.904800420000001</v>
+      </c>
+      <c r="H233" s="2">
         <v>574413</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B234" s="2">
         <v>11807</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D234" s="2">
         <v>11806</v>
       </c>
-      <c r="E234" s="2">
+      <c r="E234" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F234" s="2">
+        <v>36.894599914550703</v>
+      </c>
+      <c r="G234" s="2">
+        <v>-76.201202392578097</v>
+      </c>
+      <c r="H234" s="2">
         <v>23613</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B235" s="2">
         <v>731</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D235" s="2">
         <v>730</v>
       </c>
-      <c r="E235" s="2">
+      <c r="E235" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F235" s="2">
+        <v>42.267299652099602</v>
+      </c>
+      <c r="G235" s="2">
+        <v>-71.875701904296804</v>
+      </c>
+      <c r="H235" s="2">
         <v>1461</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B236" s="2">
         <v>376</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D236" s="2">
         <v>376</v>
       </c>
-      <c r="E236" s="2">
+      <c r="E236" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F236" s="2">
+        <v>43.417098999023402</v>
+      </c>
+      <c r="G236" s="2">
+        <v>-124.246002197265</v>
+      </c>
+      <c r="H236" s="2">
         <v>752</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B237" s="2">
         <v>718</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D237" s="2">
         <v>718</v>
       </c>
-      <c r="E237" s="2">
+      <c r="E237" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F237" s="2">
+        <v>66.884696959999999</v>
+      </c>
+      <c r="G237" s="2">
+        <v>-162.59899899999999</v>
+      </c>
+      <c r="H237" s="2">
         <v>1436</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B238" s="2">
         <v>730</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D238" s="2">
         <v>730</v>
       </c>
-      <c r="E238" s="2">
+      <c r="E238" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F238" s="2">
+        <v>37.060798645019503</v>
+      </c>
+      <c r="G238" s="2">
+        <v>-88.7738037109375</v>
+      </c>
+      <c r="H238" s="2">
         <v>1460</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B239" s="2">
         <v>22521</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D239" s="2">
         <v>22523</v>
       </c>
-      <c r="E239" s="2">
+      <c r="E239" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F239" s="2">
+        <v>26.683200836181602</v>
+      </c>
+      <c r="G239" s="2">
+        <v>-80.095596313476506</v>
+      </c>
+      <c r="H239" s="2">
         <v>45044</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B240" s="2">
         <v>53335</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D240" s="2">
         <v>53334</v>
       </c>
-      <c r="E240" s="2">
+      <c r="E240" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F240" s="2">
+        <v>45.588699339999998</v>
+      </c>
+      <c r="G240" s="2">
+        <v>-122.59799959999999</v>
+      </c>
+      <c r="H240" s="2">
         <v>106669</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B241" s="2">
         <v>2064</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D241" s="2">
         <v>2064</v>
       </c>
-      <c r="E241" s="2">
+      <c r="E241" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F241" s="2">
+        <v>37.131900790000003</v>
+      </c>
+      <c r="G241" s="2">
+        <v>-76.492996219999995</v>
+      </c>
+      <c r="H241" s="2">
         <v>4128</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B242" s="2">
         <v>72835</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D242" s="2">
         <v>72823</v>
       </c>
-      <c r="E242" s="2">
+      <c r="E242" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F242" s="2">
+        <v>39.871898651122997</v>
+      </c>
+      <c r="G242" s="2">
+        <v>-75.241096496582003</v>
+      </c>
+      <c r="H242" s="2">
         <v>145658</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B243" s="2">
         <v>160475</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D243" s="2">
         <v>160466</v>
       </c>
-      <c r="E243" s="2">
+      <c r="E243" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F243" s="2">
+        <v>33.434299468994098</v>
+      </c>
+      <c r="G243" s="2">
+        <v>-112.012001037597</v>
+      </c>
+      <c r="H243" s="2">
         <v>320941</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B244" s="2">
         <v>4031</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D244" s="2">
         <v>4034</v>
       </c>
-      <c r="E244" s="2">
+      <c r="E244" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F244" s="2">
+        <v>40.664199829099999</v>
+      </c>
+      <c r="G244" s="2">
+        <v>-89.693298339799995</v>
+      </c>
+      <c r="H244" s="2">
         <v>8065</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B245" s="2">
         <v>94</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D245" s="2">
         <v>95</v>
       </c>
-      <c r="E245" s="2">
+      <c r="E245" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F245" s="2">
+        <v>31.467100143432599</v>
+      </c>
+      <c r="G245" s="2">
+        <v>-89.337097167968693</v>
+      </c>
+      <c r="H245" s="2">
         <v>189</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B246" s="2">
         <v>1108</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D246" s="2">
         <v>1109</v>
       </c>
-      <c r="E246" s="2">
+      <c r="E246" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F246" s="2">
+        <v>42.909801483154297</v>
+      </c>
+      <c r="G246" s="2">
+        <v>-112.59600067138599</v>
+      </c>
+      <c r="H246" s="2">
         <v>2217</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B247" s="2">
         <v>28288</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D247" s="2">
         <v>28277</v>
       </c>
-      <c r="E247" s="2">
+      <c r="E247" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F247" s="2">
+        <v>40.491500850000001</v>
+      </c>
+      <c r="G247" s="2">
+        <v>-80.232902530000004</v>
+      </c>
+      <c r="H247" s="2">
         <v>56565</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B248" s="2">
         <v>429</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D248" s="2">
         <v>431</v>
       </c>
-      <c r="E248" s="2">
+      <c r="E248" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F248" s="2">
+        <v>45.570899959999998</v>
+      </c>
+      <c r="G248" s="2">
+        <v>-84.796699520000004</v>
+      </c>
+      <c r="H248" s="2">
         <v>860</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B249" s="2">
         <v>8185</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D249" s="2">
         <v>8186</v>
       </c>
-      <c r="E249" s="2">
+      <c r="E249" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F249" s="2">
+        <v>30.473400115966999</v>
+      </c>
+      <c r="G249" s="2">
+        <v>-87.186599731445</v>
+      </c>
+      <c r="H249" s="2">
         <v>16371</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B250" s="2">
         <v>112</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D250" s="2">
         <v>112</v>
       </c>
-      <c r="E250" s="2">
+      <c r="E250" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F250" s="2">
+        <v>-14.3310003281</v>
+      </c>
+      <c r="G250" s="2">
+        <v>-170.710006714</v>
+      </c>
+      <c r="H250" s="2">
         <v>224</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B251" s="2">
         <v>2932</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D251" s="2">
         <v>2930</v>
       </c>
-      <c r="E251" s="2">
+      <c r="E251" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F251" s="2">
+        <v>46.264701843261697</v>
+      </c>
+      <c r="G251" s="2">
+        <v>-119.119003295898</v>
+      </c>
+      <c r="H251" s="2">
         <v>5862</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B252" s="2">
         <v>806</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D252" s="2">
         <v>806</v>
       </c>
-      <c r="E252" s="2">
+      <c r="E252" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F252" s="2">
+        <v>18.00830078125</v>
+      </c>
+      <c r="G252" s="2">
+        <v>-66.563003540039006</v>
+      </c>
+      <c r="H252" s="2">
         <v>1612</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B253" s="2">
         <v>726</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D253" s="2">
         <v>726</v>
       </c>
-      <c r="E253" s="2">
+      <c r="E253" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F253" s="2">
+        <v>56.801700590000003</v>
+      </c>
+      <c r="G253" s="2">
+        <v>-132.94500729999999</v>
+      </c>
+      <c r="H253" s="2">
         <v>1452</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B254" s="2">
         <v>11536</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D254" s="2">
         <v>11539</v>
       </c>
-      <c r="E254" s="2">
+      <c r="E254" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F254" s="2">
+        <v>33.829700469970703</v>
+      </c>
+      <c r="G254" s="2">
+        <v>-116.50700378417901</v>
+      </c>
+      <c r="H254" s="2">
         <v>23075</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B255" s="2">
         <v>472</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D255" s="2">
         <v>471</v>
       </c>
-      <c r="E255" s="2">
+      <c r="E255" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F255" s="2">
+        <v>38.289100646972599</v>
+      </c>
+      <c r="G255" s="2">
+        <v>-104.49700164794901</v>
+      </c>
+      <c r="H255" s="2">
         <v>943</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B256" s="2">
         <v>12152</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D256" s="2">
         <v>12152</v>
       </c>
-      <c r="E256" s="2">
+      <c r="E256" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F256" s="2">
+        <v>41.732601165771399</v>
+      </c>
+      <c r="G256" s="2">
+        <v>-71.420402526855398</v>
+      </c>
+      <c r="H256" s="2">
         <v>24304</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B257" s="2">
         <v>5164</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D257" s="2">
         <v>5162</v>
       </c>
-      <c r="E257" s="2">
+      <c r="E257" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F257" s="2">
+        <v>43.646198269999999</v>
+      </c>
+      <c r="G257" s="2">
+        <v>-70.309303279999995</v>
+      </c>
+      <c r="H257" s="2">
         <v>10326</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B258" s="2">
         <v>3768</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D258" s="2">
         <v>3767</v>
       </c>
-      <c r="E258" s="2">
+      <c r="E258" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F258" s="2">
+        <v>44.045299530029297</v>
+      </c>
+      <c r="G258" s="2">
+        <v>-103.056999206542</v>
+      </c>
+      <c r="H258" s="2">
         <v>7535</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B259" s="2">
         <v>1093</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D259" s="2">
         <v>1093</v>
       </c>
-      <c r="E259" s="2">
+      <c r="E259" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F259" s="2">
+        <v>40.508998869999999</v>
+      </c>
+      <c r="G259" s="2">
+        <v>-122.29299930000001</v>
+      </c>
+      <c r="H259" s="2">
         <v>2186</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B260" s="2">
         <v>3099</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D260" s="2">
         <v>3096</v>
       </c>
-      <c r="E260" s="2">
+      <c r="E260" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F260" s="2">
+        <v>44.254100800000003</v>
+      </c>
+      <c r="G260" s="2">
+        <v>-121.1500015</v>
+      </c>
+      <c r="H260" s="2">
         <v>6195</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B261" s="2">
         <v>38813</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D261" s="2">
         <v>38818</v>
       </c>
-      <c r="E261" s="2">
+      <c r="E261" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F261" s="2">
+        <v>35.877601623535099</v>
+      </c>
+      <c r="G261" s="2">
+        <v>-78.787498474121094</v>
+      </c>
+      <c r="H261" s="2">
         <v>77631</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B262" s="2">
         <v>1044</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D262" s="2">
         <v>1044</v>
       </c>
-      <c r="E262" s="2">
+      <c r="E262" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F262" s="2">
+        <v>45.631198883056598</v>
+      </c>
+      <c r="G262" s="2">
+        <v>-89.467498779296804</v>
+      </c>
+      <c r="H262" s="2">
         <v>2088</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B263" s="2">
         <v>17385</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D263" s="2">
         <v>17388</v>
       </c>
-      <c r="E263" s="2">
+      <c r="E263" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F263" s="2">
+        <v>37.505199432372997</v>
+      </c>
+      <c r="G263" s="2">
+        <v>-77.3197021484375</v>
+      </c>
+      <c r="H263" s="2">
         <v>34773</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B264" s="2">
         <v>1717</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D264" s="2">
         <v>1718</v>
       </c>
-      <c r="E264" s="2">
+      <c r="E264" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F264" s="2">
+        <v>41.594200129999997</v>
+      </c>
+      <c r="G264" s="2">
+        <v>-109.0650024</v>
+      </c>
+      <c r="H264" s="2">
         <v>3435</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B265" s="2">
         <v>15339</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D265" s="2">
         <v>15338</v>
       </c>
-      <c r="E265" s="2">
+      <c r="E265" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F265" s="2">
+        <v>39.499099731445298</v>
+      </c>
+      <c r="G265" s="2">
+        <v>-119.76799774169901</v>
+      </c>
+      <c r="H265" s="2">
         <v>30677</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B266" s="2">
         <v>2488</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D266" s="2">
         <v>2492</v>
       </c>
-      <c r="E266" s="2">
+      <c r="E266" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F266" s="2">
+        <v>37.325500488299902</v>
+      </c>
+      <c r="G266" s="2">
+        <v>-79.975402832</v>
+      </c>
+      <c r="H266" s="2">
         <v>4980</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B267" s="2">
         <v>8366</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D267" s="2">
         <v>8368</v>
       </c>
-      <c r="E267" s="2">
+      <c r="E267" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F267" s="2">
+        <v>43.118900299072202</v>
+      </c>
+      <c r="G267" s="2">
+        <v>-77.672401428222599</v>
+      </c>
+      <c r="H267" s="2">
         <v>16734</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B268" s="2">
         <v>1045</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D268" s="2">
         <v>1045</v>
       </c>
-      <c r="E268" s="2">
+      <c r="E268" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F268" s="2">
+        <v>33.301601409912102</v>
+      </c>
+      <c r="G268" s="2">
+        <v>-104.53099822998</v>
+      </c>
+      <c r="H268" s="2">
         <v>2090</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B269" s="2">
         <v>1629</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D269" s="2">
         <v>1630</v>
       </c>
-      <c r="E269" s="2">
+      <c r="E269" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F269" s="2">
+        <v>43.908298492431598</v>
+      </c>
+      <c r="G269" s="2">
+        <v>-92.5</v>
+      </c>
+      <c r="H269" s="2">
         <v>3259</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B270" s="2">
         <v>26641</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D270" s="2">
         <v>26641</v>
       </c>
-      <c r="E270" s="2">
+      <c r="E270" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F270" s="2">
+        <v>26.536199569702099</v>
+      </c>
+      <c r="G270" s="2">
+        <v>-81.755203247070298</v>
+      </c>
+      <c r="H270" s="2">
         <v>53282</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B271" s="2">
         <v>1995</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D271" s="2">
         <v>1997</v>
       </c>
-      <c r="E271" s="2">
+      <c r="E271" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F271" s="2">
+        <v>35.617099762000002</v>
+      </c>
+      <c r="G271" s="2">
+        <v>-106.08899688699999</v>
+      </c>
+      <c r="H271" s="2">
         <v>3992</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B272" s="2">
         <v>76731</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D272" s="2">
         <v>76732</v>
       </c>
-      <c r="E272" s="2">
+      <c r="E272" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F272" s="2">
+        <v>32.733600616499999</v>
+      </c>
+      <c r="G272" s="2">
+        <v>-117.190002441</v>
+      </c>
+      <c r="H272" s="2">
         <v>153463</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B273" s="2">
         <v>33928</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D273" s="2">
         <v>33931</v>
       </c>
-      <c r="E273" s="2">
+      <c r="E273" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F273" s="2">
+        <v>29.5337009429931</v>
+      </c>
+      <c r="G273" s="2">
+        <v>-98.469802856445298</v>
+      </c>
+      <c r="H273" s="2">
         <v>67859</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B274" s="2">
         <v>9182</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D274" s="2">
         <v>9182</v>
       </c>
-      <c r="E274" s="2">
+      <c r="E274" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F274" s="2">
+        <v>32.12760162</v>
+      </c>
+      <c r="G274" s="2">
+        <v>-81.202102659999994</v>
+      </c>
+      <c r="H274" s="2">
         <v>18364</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B275" s="2">
         <v>8318</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D275" s="2">
         <v>8317</v>
       </c>
-      <c r="E275" s="2">
+      <c r="E275" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F275" s="2">
+        <v>34.426200870000002</v>
+      </c>
+      <c r="G275" s="2">
+        <v>-119.8399963</v>
+      </c>
+      <c r="H275" s="2">
         <v>16635</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B276" s="2">
         <v>4918</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D276" s="2">
         <v>4919</v>
       </c>
-      <c r="E276" s="2">
+      <c r="E276" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F276" s="2">
+        <v>41.708698272705</v>
+      </c>
+      <c r="G276" s="2">
+        <v>-86.317298889160099</v>
+      </c>
+      <c r="H276" s="2">
         <v>9837</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B277" s="2">
         <v>4775</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D277" s="2">
         <v>4776</v>
       </c>
-      <c r="E277" s="2">
+      <c r="E277" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F277" s="2">
+        <v>35.236801147499897</v>
+      </c>
+      <c r="G277" s="2">
+        <v>-120.64199829099999</v>
+      </c>
+      <c r="H277" s="2">
         <v>9551</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B278" s="2">
         <v>934</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D278" s="2">
         <v>934</v>
       </c>
-      <c r="E278" s="2">
+      <c r="E278" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F278" s="2">
+        <v>70.194702149999998</v>
+      </c>
+      <c r="G278" s="2">
+        <v>-148.4649963</v>
+      </c>
+      <c r="H278" s="2">
         <v>1868</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B279" s="2">
         <v>720</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D279" s="2">
         <v>722</v>
       </c>
-      <c r="E279" s="2">
+      <c r="E279" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F279" s="2">
+        <v>40.849300384499998</v>
+      </c>
+      <c r="G279" s="2">
+        <v>-77.848701477099993</v>
+      </c>
+      <c r="H279" s="2">
         <v>1442</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B280" s="2">
         <v>14415</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D280" s="2">
         <v>14411</v>
       </c>
-      <c r="E280" s="2">
+      <c r="E280" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F280" s="2">
+        <v>38.174399999999999</v>
+      </c>
+      <c r="G280" s="2">
+        <v>-85.736000000000004</v>
+      </c>
+      <c r="H280" s="2">
         <v>28826</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B281" s="2">
         <v>108714</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D281" s="2">
         <v>108722</v>
       </c>
-      <c r="E281" s="2">
+      <c r="E281" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F281" s="2">
+        <v>47.449001312255803</v>
+      </c>
+      <c r="G281" s="2">
+        <v>-122.30899810791</v>
+      </c>
+      <c r="H281" s="2">
         <v>217436</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B282" s="2">
         <v>166893</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D282" s="2">
         <v>166883</v>
       </c>
-      <c r="E282" s="2">
+      <c r="E282" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F282" s="2">
+        <v>37.618999481201101</v>
+      </c>
+      <c r="G282" s="2">
+        <v>-122.375</v>
+      </c>
+      <c r="H282" s="2">
         <v>333776</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B283" s="2">
         <v>6710</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D283" s="2">
         <v>6707</v>
       </c>
-      <c r="E283" s="2">
+      <c r="E283" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F283" s="2">
+        <v>37.245700839999998</v>
+      </c>
+      <c r="G283" s="2">
+        <v>-93.388603209999999</v>
+      </c>
+      <c r="H283" s="2">
         <v>13417</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B284" s="2">
         <v>1799</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D284" s="2">
         <v>1798</v>
       </c>
-      <c r="E284" s="2">
+      <c r="E284" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F284" s="2">
+        <v>37.036388888899999</v>
+      </c>
+      <c r="G284" s="2">
+        <v>-113.51030555600001</v>
+      </c>
+      <c r="H284" s="2">
         <v>3597</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B285" s="2">
         <v>6871</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D285" s="2">
         <v>6873</v>
       </c>
-      <c r="E285" s="2">
+      <c r="E285" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F285" s="2">
+        <v>32.446601867675703</v>
+      </c>
+      <c r="G285" s="2">
+        <v>-93.825599670410099</v>
+      </c>
+      <c r="H285" s="2">
         <v>13744</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B286" s="2">
         <v>1275</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D286" s="2">
         <v>1275</v>
       </c>
-      <c r="E286" s="2">
+      <c r="E286" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F286" s="2">
+        <v>57.047100067138601</v>
+      </c>
+      <c r="G286" s="2">
+        <v>-135.36199951171801</v>
+      </c>
+      <c r="H286" s="2">
         <v>2550</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B287" s="2">
         <v>42303</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D287" s="2">
         <v>42298</v>
       </c>
-      <c r="E287" s="2">
+      <c r="E287" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F287" s="2">
+        <v>37.362598419189403</v>
+      </c>
+      <c r="G287" s="2">
+        <v>-121.929000854492</v>
+      </c>
+      <c r="H287" s="2">
         <v>84601</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B288" s="2">
         <v>1772</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D288" s="2">
         <v>1772</v>
       </c>
-      <c r="E288" s="2">
+      <c r="E288" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F288" s="2">
+        <v>31.357700347900298</v>
+      </c>
+      <c r="G288" s="2">
+        <v>-100.496002197265</v>
+      </c>
+      <c r="H288" s="2">
         <v>3544</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B289" s="2">
         <v>25903</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D289" s="2">
         <v>25900</v>
       </c>
-      <c r="E289" s="2">
+      <c r="E289" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F289" s="2">
+        <v>18.439399719200001</v>
+      </c>
+      <c r="G289" s="2">
+        <v>-66.001800537099996</v>
+      </c>
+      <c r="H289" s="2">
         <v>51803</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B290" s="2">
         <v>108586</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D290" s="2">
         <v>108586</v>
       </c>
-      <c r="E290" s="2">
+      <c r="E290" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F290" s="2">
+        <v>40.788398742675703</v>
+      </c>
+      <c r="G290" s="2">
+        <v>-111.97799682617099</v>
+      </c>
+      <c r="H290" s="2">
         <v>217172</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B291" s="2">
         <v>42107</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D291" s="2">
         <v>42104</v>
       </c>
-      <c r="E291" s="2">
+      <c r="E291" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F291" s="2">
+        <v>38.695400238037102</v>
+      </c>
+      <c r="G291" s="2">
+        <v>-121.591003417968</v>
+      </c>
+      <c r="H291" s="2">
         <v>84211</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B292" s="2">
         <v>1221</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D292" s="2">
         <v>1221</v>
       </c>
-      <c r="E292" s="2">
+      <c r="E292" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F292" s="2">
+        <v>34.89889908</v>
+      </c>
+      <c r="G292" s="2">
+        <v>-120.45700069999999</v>
+      </c>
+      <c r="H292" s="2">
         <v>2442</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B293" s="2">
         <v>39141</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D293" s="2">
         <v>39142</v>
       </c>
-      <c r="E293" s="2">
+      <c r="E293" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F293" s="2">
+        <v>33.675701140000001</v>
+      </c>
+      <c r="G293" s="2">
+        <v>-117.86799619999999</v>
+      </c>
+      <c r="H293" s="2">
         <v>78283</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B294" s="2">
         <v>1778</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D294" s="2">
         <v>1778</v>
       </c>
-      <c r="E294" s="2">
+      <c r="E294" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F294" s="2">
+        <v>39.844100949999998</v>
+      </c>
+      <c r="G294" s="2">
+        <v>-89.677902220000007</v>
+      </c>
+      <c r="H294" s="2">
         <v>3556</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B295" s="2">
         <v>1</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D295" s="2">
         <v>1</v>
       </c>
-      <c r="E295" s="2">
+      <c r="E295" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F295" s="2">
+        <v>15.119000434899901</v>
+      </c>
+      <c r="G295" s="2">
+        <v>145.729003906</v>
+      </c>
+      <c r="H295" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B296" s="2">
         <v>1449</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D296" s="2">
         <v>1450</v>
       </c>
-      <c r="E296" s="2">
+      <c r="E296" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F296" s="2">
+        <v>33.988800050000002</v>
+      </c>
+      <c r="G296" s="2">
+        <v>-98.49189758</v>
+      </c>
+      <c r="H296" s="2">
         <v>2899</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B297" s="2">
         <v>3757</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D297" s="2">
         <v>3756</v>
       </c>
-      <c r="E297" s="2">
+      <c r="E297" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F297" s="2">
+        <v>27.395399093627901</v>
+      </c>
+      <c r="G297" s="2">
+        <v>-82.554397583007798</v>
+      </c>
+      <c r="H297" s="2">
         <v>7513</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B298" s="2">
         <v>467</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D298" s="2">
         <v>468</v>
       </c>
-      <c r="E298" s="2">
+      <c r="E298" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F298" s="2">
+        <v>45.546600341796797</v>
+      </c>
+      <c r="G298" s="2">
+        <v>-94.059898376464801</v>
+      </c>
+      <c r="H298" s="2">
         <v>935</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B299" s="2">
         <v>52418</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D299" s="2">
         <v>52419</v>
       </c>
-      <c r="E299" s="2">
+      <c r="E299" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F299" s="2">
+        <v>38.748699188232401</v>
+      </c>
+      <c r="G299" s="2">
+        <v>-90.370002746582003</v>
+      </c>
+      <c r="H299" s="2">
         <v>104837</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B300" s="2">
         <v>4196</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D300" s="2">
         <v>4196</v>
       </c>
-      <c r="E300" s="2">
+      <c r="E300" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F300" s="2">
+        <v>18.3372993469238</v>
+      </c>
+      <c r="G300" s="2">
+        <v>-64.973396301269503</v>
+      </c>
+      <c r="H300" s="2">
         <v>8392</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B301" s="2">
         <v>926</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D301" s="2">
         <v>927</v>
       </c>
-      <c r="E301" s="2">
+      <c r="E301" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F301" s="2">
+        <v>17.701900482177699</v>
+      </c>
+      <c r="G301" s="2">
+        <v>-64.798599243164006</v>
+      </c>
+      <c r="H301" s="2">
         <v>1853</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B302" s="2">
         <v>1101</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D302" s="2">
         <v>1102</v>
       </c>
-      <c r="E302" s="2">
+      <c r="E302" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F302" s="2">
+        <v>43.504398350000002</v>
+      </c>
+      <c r="G302" s="2">
+        <v>-114.29599760000001</v>
+      </c>
+      <c r="H302" s="2">
         <v>2203</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B303" s="2">
         <v>737</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D303" s="2">
         <v>737</v>
       </c>
-      <c r="E303" s="2">
+      <c r="E303" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F303" s="2">
+        <v>42.402599330000001</v>
+      </c>
+      <c r="G303" s="2">
+        <v>-96.38439941</v>
+      </c>
+      <c r="H303" s="2">
         <v>1474</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B304" s="2">
         <v>750</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D304" s="2">
         <v>748</v>
       </c>
-      <c r="E304" s="2">
+      <c r="E304" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F304" s="2">
+        <v>41.504100799560497</v>
+      </c>
+      <c r="G304" s="2">
+        <v>-74.104797363281193</v>
+      </c>
+      <c r="H304" s="2">
         <v>1498</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B305" s="2">
         <v>6463</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D305" s="2">
         <v>6458</v>
       </c>
-      <c r="E305" s="2">
+      <c r="E305" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F305" s="2">
+        <v>43.111198425292898</v>
+      </c>
+      <c r="G305" s="2">
+        <v>-76.106300354003906</v>
+      </c>
+      <c r="H305" s="2">
         <v>12921</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B306" s="2">
         <v>4422</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D306" s="2">
         <v>4429</v>
       </c>
-      <c r="E306" s="2">
+      <c r="E306" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F306" s="2">
+        <v>30.396499633788999</v>
+      </c>
+      <c r="G306" s="2">
+        <v>-84.350303649902301</v>
+      </c>
+      <c r="H306" s="2">
         <v>8851</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B307" s="2">
         <v>1016</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D307" s="2">
         <v>1017</v>
       </c>
-      <c r="E307" s="2">
+      <c r="E307" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F307" s="2">
+        <v>41.586799620000001</v>
+      </c>
+      <c r="G307" s="2">
+        <v>-83.807800290000003</v>
+      </c>
+      <c r="H307" s="2">
         <v>2033</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B308" s="2">
         <v>64873</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D308" s="2">
         <v>64879</v>
       </c>
-      <c r="E308" s="2">
+      <c r="E308" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F308" s="2">
+        <v>27.975500106811499</v>
+      </c>
+      <c r="G308" s="2">
+        <v>-82.533203125</v>
+      </c>
+      <c r="H308" s="2">
         <v>129752</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B309" s="2">
         <v>2137</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D309" s="2">
         <v>2132</v>
       </c>
-      <c r="E309" s="2">
+      <c r="E309" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F309" s="2">
+        <v>36.475200653076101</v>
+      </c>
+      <c r="G309" s="2">
+        <v>-82.407402038574205</v>
+      </c>
+      <c r="H309" s="2">
         <v>4269</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B310" s="2">
         <v>3103</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D310" s="2">
         <v>3107</v>
       </c>
-      <c r="E310" s="2">
+      <c r="E310" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F310" s="2">
+        <v>40.276699066162102</v>
+      </c>
+      <c r="G310" s="2">
+        <v>-74.813499450683594</v>
+      </c>
+      <c r="H310" s="2">
         <v>6210</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B311" s="2">
         <v>18252</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D311" s="2">
         <v>18248</v>
       </c>
-      <c r="E311" s="2">
+      <c r="E311" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F311" s="2">
+        <v>36.198398590087798</v>
+      </c>
+      <c r="G311" s="2">
+        <v>-95.888099670410099</v>
+      </c>
+      <c r="H311" s="2">
         <v>36500</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B312" s="2">
         <v>16499</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D312" s="2">
         <v>16498</v>
       </c>
-      <c r="E312" s="2">
+      <c r="E312" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F312" s="2">
+        <v>32.116100311279297</v>
+      </c>
+      <c r="G312" s="2">
+        <v>-110.94100189208901</v>
+      </c>
+      <c r="H312" s="2">
         <v>32997</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B313" s="2">
         <v>2540</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D313" s="2">
         <v>2540</v>
       </c>
-      <c r="E313" s="2">
+      <c r="E313" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F313" s="2">
+        <v>44.741401672363203</v>
+      </c>
+      <c r="G313" s="2">
+        <v>-85.582199096679602</v>
+      </c>
+      <c r="H313" s="2">
         <v>5080</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B314" s="2">
         <v>1014</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D314" s="2">
         <v>1013</v>
       </c>
-      <c r="E314" s="2">
+      <c r="E314" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F314" s="2">
+        <v>42.481800079999999</v>
+      </c>
+      <c r="G314" s="2">
+        <v>-114.487999</v>
+      </c>
+      <c r="H314" s="2">
         <v>2027</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B315" s="2">
         <v>1051</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D315" s="2">
         <v>1051</v>
       </c>
-      <c r="E315" s="2">
+      <c r="E315" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F315" s="2">
+        <v>33.453701019287102</v>
+      </c>
+      <c r="G315" s="2">
+        <v>-93.990997314453097</v>
+      </c>
+      <c r="H315" s="2">
         <v>2102</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B316" s="2">
         <v>2657</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D316" s="2">
         <v>2657</v>
       </c>
-      <c r="E316" s="2">
+      <c r="E316" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F316" s="2">
+        <v>32.354099273681598</v>
+      </c>
+      <c r="G316" s="2">
+        <v>-95.402397155761705</v>
+      </c>
+      <c r="H316" s="2">
         <v>5314</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B317" s="2">
         <v>8733</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D317" s="2">
         <v>8737</v>
       </c>
-      <c r="E317" s="2">
+      <c r="E317" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F317" s="2">
+        <v>35.811000819999997</v>
+      </c>
+      <c r="G317" s="2">
+        <v>-83.994003300000003</v>
+      </c>
+      <c r="H317" s="2">
         <v>17470</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B318" s="2">
         <v>176</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D318" s="2">
         <v>176</v>
       </c>
-      <c r="E318" s="2">
+      <c r="E318" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F318" s="2">
+        <v>29.959199905396002</v>
+      </c>
+      <c r="G318" s="2">
+        <v>-81.339797973632997</v>
+      </c>
+      <c r="H318" s="2">
         <v>352</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B319" s="2">
         <v>518</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D319" s="2">
         <v>519</v>
       </c>
-      <c r="E319" s="2">
+      <c r="E319" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F319" s="2">
+        <v>40.440898900000001</v>
+      </c>
+      <c r="G319" s="2">
+        <v>-109.51000209999999</v>
+      </c>
+      <c r="H319" s="2">
         <v>1037</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B320" s="2">
         <v>1023</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D320" s="2">
         <v>1024</v>
       </c>
-      <c r="E320" s="2">
+      <c r="E320" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F320" s="2">
+        <v>30.7824993133544</v>
+      </c>
+      <c r="G320" s="2">
+        <v>-83.276702880859304</v>
+      </c>
+      <c r="H320" s="2">
         <v>2047</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B321" s="2">
         <v>5062</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D321" s="2">
         <v>5062</v>
       </c>
-      <c r="E321" s="2">
+      <c r="E321" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F321" s="2">
+        <v>30.4832</v>
+      </c>
+      <c r="G321" s="2">
+        <v>-86.525397999999996</v>
+      </c>
+      <c r="H321" s="2">
         <v>10124</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B322" s="2">
         <v>726</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D322" s="2">
         <v>726</v>
       </c>
-      <c r="E322" s="2">
+      <c r="E322" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F322" s="2">
+        <v>56.484298709999997</v>
+      </c>
+      <c r="G322" s="2">
+        <v>-132.36999510000001</v>
+      </c>
+      <c r="H322" s="2">
         <v>1452</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B323" s="2">
         <v>269</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D323" s="2">
         <v>269</v>
       </c>
-      <c r="E323" s="2">
+      <c r="E323" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F323" s="2">
+        <v>44.688400270000002</v>
+      </c>
+      <c r="G323" s="2">
+        <v>-111.11799619999999</v>
+      </c>
+      <c r="H323" s="2">
         <v>538</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B324" s="2">
         <v>10479</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D324" s="2">
         <v>10484</v>
       </c>
-      <c r="E324" s="2">
+      <c r="E324" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F324" s="2">
+        <v>36.281897999999998</v>
+      </c>
+      <c r="G324" s="2">
+        <v>-94.306800999999993</v>
+      </c>
+      <c r="H324" s="2">
         <v>20963</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B325" s="2">
         <v>724</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D325" s="2">
         <v>724</v>
       </c>
-      <c r="E325" s="2">
+      <c r="E325" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F325" s="2">
+        <v>59.503299713099999</v>
+      </c>
+      <c r="G325" s="2">
+        <v>-139.66000366200001</v>
+      </c>
+      <c r="H325" s="2">
         <v>1448</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B326" s="2">
         <v>2938</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D326" s="2">
         <v>2937</v>
       </c>
-      <c r="E326" s="2">
+      <c r="E326" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F326" s="2">
+        <v>32.656600949999998</v>
+      </c>
+      <c r="G326" s="2">
+        <v>-114.6060028</v>
+      </c>
+      <c r="H326" s="2">
         <v>5875</v>
       </c>
     </row>
